--- a/output/fit_clients/fit_round_333.xlsx
+++ b/output/fit_clients/fit_round_333.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1876052404.21697</v>
+        <v>1974930749.320882</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09023166862907385</v>
+        <v>0.1071572947895198</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03715709511594953</v>
+        <v>0.03738172965430903</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>938026181.0730679</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2025483443.917918</v>
+        <v>1646840833.199036</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1645013066879542</v>
+        <v>0.1563559694897532</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04864701725050082</v>
+        <v>0.04544749031072974</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1012741765.975561</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4506526604.00421</v>
+        <v>4433444971.33796</v>
       </c>
       <c r="F4" t="n">
-        <v>0.11766784955476</v>
+        <v>0.1402131660876104</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03174599712576097</v>
+        <v>0.03074990571559729</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>120</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2253263352.071843</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4243814744.08135</v>
+        <v>3340715100.395295</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08539989613698819</v>
+        <v>0.09335408117268999</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05079857048426649</v>
+        <v>0.03854178773642652</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>123</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2121907359.642364</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2235599072.530536</v>
+        <v>2858300629.893189</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1013191942057798</v>
+        <v>0.1150406066375577</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04094902667814294</v>
+        <v>0.04751993167616363</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>64</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1117799540.36839</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2084279789.15221</v>
+        <v>1968457521.117596</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0830967208671539</v>
+        <v>0.09063270547761483</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04933992291723603</v>
+        <v>0.04193196615157065</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>103</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1042139947.63309</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3234153042.415868</v>
+        <v>3258154028.65211</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1513006869058177</v>
+        <v>0.1413124345258145</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03245904559509212</v>
+        <v>0.02299299117534516</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>106</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1617076602.663067</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1496061278.612889</v>
+        <v>2211468874.882412</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1447257064986109</v>
+        <v>0.1334715612329813</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03315106814716502</v>
+        <v>0.02834838529786753</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>748030735.8401158</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4791599118.891273</v>
+        <v>4307294328.541583</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1382314415982066</v>
+        <v>0.203566198532094</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03799311019227337</v>
+        <v>0.044400945692944</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>140</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2395799642.633344</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3538444748.766338</v>
+        <v>3774043737.179042</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1611304543756139</v>
+        <v>0.1527361636997284</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04035540322456813</v>
+        <v>0.03965195149325154</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>137</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1769222354.851959</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2108102196.715884</v>
+        <v>3185088892.939157</v>
       </c>
       <c r="F12" t="n">
-        <v>0.174519653158014</v>
+        <v>0.1525579268599773</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05151297815532475</v>
+        <v>0.04764009488721902</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>114</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1054051034.716009</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4444231185.587205</v>
+        <v>3868928632.037113</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08815042715277886</v>
+        <v>0.09265277128541029</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02598196614920837</v>
+        <v>0.0210476219221371</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>111</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2222115625.165465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3150994378.208505</v>
+        <v>2557200923.27189</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1199372776845533</v>
+        <v>0.1445133776620151</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03066728985809272</v>
+        <v>0.03110077179577762</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>108</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1575497212.614746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1601720482.948109</v>
+        <v>1623963412.486074</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1084849431384447</v>
+        <v>0.08738988714533071</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03075148484184942</v>
+        <v>0.0442237770894125</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>800860350.0491301</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1810377327.737165</v>
+        <v>2038705627.012896</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1059827652941846</v>
+        <v>0.08754882122124102</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04197757152546913</v>
+        <v>0.03808620555370433</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>66</v>
-      </c>
-      <c r="J16" t="n">
-        <v>905188756.3113612</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3654233552.634097</v>
+        <v>4608799490.292034</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1260175426574732</v>
+        <v>0.170608357610084</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03468384855065556</v>
+        <v>0.03776780710825828</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>97</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1827116828.003496</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3246702045.285291</v>
+        <v>3513300296.029495</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1405449382355818</v>
+        <v>0.1380232735214459</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02435915197746035</v>
+        <v>0.03305473023767815</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>109</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1623351035.007749</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1120300738.198365</v>
+        <v>1217544109.044443</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1311507340016617</v>
+        <v>0.1814529344724569</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01781158855899608</v>
+        <v>0.01979640135409517</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>560150427.613902</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1714919231.610051</v>
+        <v>2322057635.25988</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1424182976970839</v>
+        <v>0.1492397099206245</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02853760501821681</v>
+        <v>0.02500544751277812</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>857459672.5320182</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2692263590.897359</v>
+        <v>1840267089.310099</v>
       </c>
       <c r="F21" t="n">
-        <v>0.100026783117334</v>
+        <v>0.08511577710045685</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03721719033975303</v>
+        <v>0.03477477470873986</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1346131765.203397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3215885843.830886</v>
+        <v>2720036035.098499</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1138637819763784</v>
+        <v>0.1395229943340215</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05533740633746963</v>
+        <v>0.04670091203724119</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>91</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1607942970.527824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>939230784.147276</v>
+        <v>1111590153.277228</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1287049430240601</v>
+        <v>0.1817968343785207</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04860030604911363</v>
+        <v>0.03722363445453045</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>469615472.5047598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2586660957.992988</v>
+        <v>4050431547.04738</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1083306244553074</v>
+        <v>0.1443765245633815</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02714194048082692</v>
+        <v>0.02266711806595631</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>97</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1293330542.033788</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1474046342.388555</v>
+        <v>1465933153.183464</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1021008932842496</v>
+        <v>0.1205691165609474</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03070434367560417</v>
+        <v>0.01938477354859727</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>737023126.1356053</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1267176754.674137</v>
+        <v>1078644440.225191</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08825710826750323</v>
+        <v>0.08947491711921567</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02720553644250797</v>
+        <v>0.02727416205031446</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>633588414.7885799</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3944887268.306581</v>
+        <v>4189997312.000723</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1545348112115301</v>
+        <v>0.1368194387135643</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01956232402417228</v>
+        <v>0.0227717468999209</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1972443647.027706</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2741930690.455565</v>
+        <v>3291170876.581039</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1352215461453074</v>
+        <v>0.1184200989695891</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04479732843305385</v>
+        <v>0.04587526332513245</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>107</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1370965334.0472</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4448927957.500095</v>
+        <v>3984734658.790226</v>
       </c>
       <c r="F29" t="n">
-        <v>0.131660559887892</v>
+        <v>0.09800521584669787</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03087756403490522</v>
+        <v>0.0392610821712969</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>147</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2224463964.546892</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1679997720.067859</v>
+        <v>2375033454.536413</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1115462421530814</v>
+        <v>0.1262414800265205</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02958822428669098</v>
+        <v>0.03925417658551381</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>839998861.0294067</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1251850490.015942</v>
+        <v>973285044.1955876</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08558228988561875</v>
+        <v>0.09564155145128479</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03347282881632806</v>
+        <v>0.04963734553494113</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>625925184.2729739</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1740774176.776747</v>
+        <v>1230377963.506404</v>
       </c>
       <c r="F32" t="n">
-        <v>0.108126653418903</v>
+        <v>0.1009615603456732</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02919514217222498</v>
+        <v>0.03463612492654716</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>870387206.6105884</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3123919671.534981</v>
+        <v>2003712773.580572</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1439151605810762</v>
+        <v>0.2073141689867803</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04572429832172243</v>
+        <v>0.0390614849797077</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>99</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1561959820.833195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>964998661.4709655</v>
+        <v>1574920117.51161</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1094809446987603</v>
+        <v>0.1057468273457083</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02065630605790614</v>
+        <v>0.02710248433275128</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>482499374.3135628</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1325110475.560721</v>
+        <v>1110451576.174262</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0730263653100221</v>
+        <v>0.08585033514439459</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04348767218755954</v>
+        <v>0.041792946754167</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>662555185.0730261</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2529522794.269568</v>
+        <v>3149907341.675334</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1338312279592378</v>
+        <v>0.1241416660676753</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02416246296188684</v>
+        <v>0.02173446122600262</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>84</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1264761416.764169</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2311100245.365921</v>
+        <v>2570320696.602332</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1097610559459072</v>
+        <v>0.07682477281059086</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03839813572055097</v>
+        <v>0.03259462187613436</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>89</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1155550192.749322</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1800819481.296371</v>
+        <v>1863831364.062811</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0819545355166966</v>
+        <v>0.1077109040131132</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02576483453021907</v>
+        <v>0.03575268935101726</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>900409747.4157028</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1462656045.095162</v>
+        <v>1405921932.120206</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1221821545690044</v>
+        <v>0.1792600225226509</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0274809062460262</v>
+        <v>0.02997419252749159</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>731328098.6457746</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1313620777.364897</v>
+        <v>1336325266.854605</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1226229558403195</v>
+        <v>0.1630240881221577</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04774443825628902</v>
+        <v>0.04198771303845598</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>656810401.5454373</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2103529911.354521</v>
+        <v>2641662348.825263</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1421924929301983</v>
+        <v>0.166706794258185</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03630708071153334</v>
+        <v>0.03822815544876221</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>84</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1051765019.739617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3200045934.374437</v>
+        <v>3477239910.997553</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08088264306691791</v>
+        <v>0.09791572150102704</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02881383885349712</v>
+        <v>0.02987241042855725</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>108</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1600022941.396037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2757208120.940426</v>
+        <v>1999571738.998278</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1482507925606439</v>
+        <v>0.1542498883826943</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02046225091812262</v>
+        <v>0.02107789962914201</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>120</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1378604083.281733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2198419734.990967</v>
+        <v>1683786743.955826</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06980960949045892</v>
+        <v>0.08847098536619526</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0267712063293507</v>
+        <v>0.02889790782239984</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1099210013.435198</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2251569270.620646</v>
+        <v>1640417196.284554</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1399963659292303</v>
+        <v>0.1602866620962234</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03515815077052098</v>
+        <v>0.04734741630302848</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1125784651.526787</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4786876651.792381</v>
+        <v>3870401767.254205</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1336966575739635</v>
+        <v>0.1491917023124799</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04341339881511642</v>
+        <v>0.0397785166751922</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>118</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2393438340.498047</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4460167608.535267</v>
+        <v>4332320891.27539</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1640340618035793</v>
+        <v>0.1599213180581704</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05432872251683058</v>
+        <v>0.05496298531848463</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>89</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2230083829.473017</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3460737698.243981</v>
+        <v>4126109863.330218</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08306489765877072</v>
+        <v>0.06749840855332802</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02687252463822578</v>
+        <v>0.03914953352601848</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>110</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1730368914.827728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1361882244.872425</v>
+        <v>1526672758.035374</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1901127960375748</v>
+        <v>0.1612992857148697</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03592698485224501</v>
+        <v>0.0383731660066747</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>680941175.9513377</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4074908410.497221</v>
+        <v>4040434226.401584</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1668345129529483</v>
+        <v>0.1736654061822876</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04352883540580219</v>
+        <v>0.03736543820339134</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>113</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2037454188.602691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1384599195.381875</v>
+        <v>1035761678.76831</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1265495642064902</v>
+        <v>0.174935130519502</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04994145949602885</v>
+        <v>0.03937863672661353</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>692299619.3398033</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3439615138.659304</v>
+        <v>5219795220.715533</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1063736590927048</v>
+        <v>0.1359357606423784</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04457048922071855</v>
+        <v>0.04594518345177542</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>137</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1719807658.795023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3210557932.924895</v>
+        <v>3386605194.477242</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1257142499782392</v>
+        <v>0.1762178750400093</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02381511849662015</v>
+        <v>0.02454232806079777</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>96</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1605278984.391069</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4575324695.068632</v>
+        <v>4454963720.789138</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1632744943053228</v>
+        <v>0.1211046723815528</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0361045076992621</v>
+        <v>0.03301826917667213</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>109</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2287662456.769498</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4267593834.647277</v>
+        <v>3427802808.625484</v>
       </c>
       <c r="F55" t="n">
-        <v>0.163537674372118</v>
+        <v>0.1818476154309731</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02841803918659216</v>
+        <v>0.02880556277271471</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2133796904.036009</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1647077243.548566</v>
+        <v>1343989888.613369</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1122346722032108</v>
+        <v>0.1116404592909435</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04665755282592231</v>
+        <v>0.03602102956568347</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>823538642.2419099</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2826315559.339928</v>
+        <v>3133816251.78099</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1560977382855229</v>
+        <v>0.1788652311612729</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01700192345374189</v>
+        <v>0.02756957596282714</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>106</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1413157769.495532</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1231600485.995761</v>
+        <v>1283746503.826653</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1258122446542953</v>
+        <v>0.1870963027446126</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03933780215842139</v>
+        <v>0.03888319116484844</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>615800298.6265515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4278339082.282056</v>
+        <v>4995762822.178166</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08480248555353795</v>
+        <v>0.103144593195812</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04857182769039359</v>
+        <v>0.03733418303567151</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2139169503.667701</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3370003138.599088</v>
+        <v>3387001374.505011</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1302068290904487</v>
+        <v>0.1975237167394003</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02926415445644265</v>
+        <v>0.02227400160571244</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>104</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1685001678.468942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3182025854.997867</v>
+        <v>3084501546.906501</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1679816069972531</v>
+        <v>0.1579384539693886</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0307270189047471</v>
+        <v>0.02700041581582593</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>114</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1591012890.809802</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1748503756.855312</v>
+        <v>1367827509.554024</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1860639887112713</v>
+        <v>0.1623591327174551</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03386277376998085</v>
+        <v>0.04934749800801138</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>874251898.7434552</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4436158469.033188</v>
+        <v>3873799316.722847</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09301871341772784</v>
+        <v>0.090844216304447</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04468470934024014</v>
+        <v>0.04513734338144146</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>98</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2218079277.43552</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4885452866.801669</v>
+        <v>4442966342.196877</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1280735878221625</v>
+        <v>0.1799726309293021</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02562232767644895</v>
+        <v>0.02350155216997045</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>103</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2442726531.551376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4963922748.947303</v>
+        <v>4278458852.629316</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1200970950633412</v>
+        <v>0.1226710999255903</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03192549596619334</v>
+        <v>0.02476465326445356</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>119</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2481961335.550837</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3532223448.740332</v>
+        <v>5500867324.665456</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1023564055737168</v>
+        <v>0.1219984906028594</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04867435608244892</v>
+        <v>0.05083724489520221</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>97</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1766111672.881007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2373548884.102996</v>
+        <v>3234685272.944174</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06966985968837018</v>
+        <v>0.06748431020886184</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03397144515492505</v>
+        <v>0.04086291619523432</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>107</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1186774513.383157</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5829814220.744674</v>
+        <v>5529306324.279303</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1261646505491602</v>
+        <v>0.1268639820731899</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04469766421557921</v>
+        <v>0.05156733543402355</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>105</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2914907217.051043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2442117072.28988</v>
+        <v>2160184437.504528</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1618141069853815</v>
+        <v>0.1682775524692243</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05950019328644892</v>
+        <v>0.04301829418019513</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1221058598.256905</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3078327884.782333</v>
+        <v>2311083503.77849</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06418403641527706</v>
+        <v>0.07691455490849423</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04608339134658729</v>
+        <v>0.04771399096445992</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>95</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1539163924.495092</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5231390616.700891</v>
+        <v>5611306101.743997</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1325429159081143</v>
+        <v>0.1571310526939082</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03125902263821525</v>
+        <v>0.03126564270614769</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>122</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2615695431.321948</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1758193550.531156</v>
+        <v>2021317539.651587</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06967580204548801</v>
+        <v>0.09978430550529345</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03384152606368781</v>
+        <v>0.04105760712016232</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>879096760.6125005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2647384038.36453</v>
+        <v>2794298596.063723</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08256997771933078</v>
+        <v>0.07694608006692051</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03780995598820507</v>
+        <v>0.05007592082739971</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>126</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1323692047.459824</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3857850866.262788</v>
+        <v>2677740134.039514</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1205966650616048</v>
+        <v>0.1141087189553842</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03477306939825352</v>
+        <v>0.03423227377525551</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>113</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1928925424.369767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2092620671.775982</v>
+        <v>1605346211.290122</v>
       </c>
       <c r="F75" t="n">
-        <v>0.114784427062991</v>
+        <v>0.1019272994058453</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02295446518334388</v>
+        <v>0.02964098866263239</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1046310291.395649</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4447824880.341186</v>
+        <v>4364799458.476331</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1130171296330198</v>
+        <v>0.1207365847517878</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0268113332334914</v>
+        <v>0.02535368380207819</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2223912443.672519</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1911401427.601799</v>
+        <v>1573309412.249112</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1202295056624855</v>
+        <v>0.181162078144813</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0200461772375985</v>
+        <v>0.02022194026410093</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>955700762.2127646</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3219287617.333326</v>
+        <v>3187115618.308657</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08451531002733952</v>
+        <v>0.1326522766488862</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04904311146484672</v>
+        <v>0.04159070702353895</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>115</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1609643830.272635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1865729015.959992</v>
+        <v>1531982680.786077</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1074194874263473</v>
+        <v>0.1688895980317377</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04060554199933192</v>
+        <v>0.04001126927659238</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>932864606.1852249</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4185974758.777761</v>
+        <v>5211999757.202774</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06893729337767612</v>
+        <v>0.1053135136613663</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03823534991684296</v>
+        <v>0.03104137116895011</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>69</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2092987388.10307</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4560354287.008489</v>
+        <v>4319491318.134066</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08983608776418556</v>
+        <v>0.1186763653068751</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02425359424777133</v>
+        <v>0.02599131696304367</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>78</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2280177127.537715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4618518860.158342</v>
+        <v>5352100977.123313</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1528497618714844</v>
+        <v>0.1478604182826498</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02497828688700289</v>
+        <v>0.01861590821892909</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>116</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2309259435.33118</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1570970073.292984</v>
+        <v>2288653334.074934</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1482441674417847</v>
+        <v>0.1168062997874715</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03094539961751121</v>
+        <v>0.03651782628578649</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>785484968.5678768</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2022361162.053285</v>
+        <v>2060890781.60601</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09083208244008509</v>
+        <v>0.1147563021860798</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05157186220480959</v>
+        <v>0.03374494710437515</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1011180582.752055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2617273904.756605</v>
+        <v>3493339962.425733</v>
       </c>
       <c r="F85" t="n">
-        <v>0.134699025737097</v>
+        <v>0.1188247158144097</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04241870595475552</v>
+        <v>0.03823931380395255</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>126</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1308636970.271602</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1741976379.103993</v>
+        <v>1917580036.600044</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1431204975795499</v>
+        <v>0.1343692660857342</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02170438295276205</v>
+        <v>0.02758169634926759</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>870988181.2876624</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1041333622.360602</v>
+        <v>1171628236.595127</v>
       </c>
       <c r="F87" t="n">
-        <v>0.145520803179363</v>
+        <v>0.1610017519932466</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04423114818400968</v>
+        <v>0.03447842755625258</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>520666826.1234221</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2418903918.722256</v>
+        <v>2963206841.230391</v>
       </c>
       <c r="F88" t="n">
-        <v>0.110524410023541</v>
+        <v>0.1524266494469932</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02633851565778691</v>
+        <v>0.02653573083927256</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>131</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1209451932.394286</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3314168793.453885</v>
+        <v>2710487981.16585</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1388283446068273</v>
+        <v>0.1057722735728664</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0417716574617702</v>
+        <v>0.03919464618642033</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>112</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1657084411.80251</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1881595638.155216</v>
+        <v>2019225733.779363</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1323888350477641</v>
+        <v>0.1198552554644055</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0367120025956956</v>
+        <v>0.03450500106522608</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>940797867.6921461</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1726167971.065964</v>
+        <v>1557831414.58399</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1495396332653995</v>
+        <v>0.1825606552609341</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05705539760914931</v>
+        <v>0.05722028267829073</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>863083994.2925227</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2342290384.796123</v>
+        <v>2497244806.915803</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08662475994436776</v>
+        <v>0.07106362739280618</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03201925897450263</v>
+        <v>0.04485867430619709</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>90</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1171145164.448847</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3967349226.405179</v>
+        <v>4119917327.134552</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1232126570918751</v>
+        <v>0.1236319796411111</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05459147935662666</v>
+        <v>0.05419364520731745</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1983674615.953305</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2113920207.01374</v>
+        <v>2358166942.933131</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1221515716073929</v>
+        <v>0.1222022250691917</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03436303020177039</v>
+        <v>0.04029490608452039</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1056960116.665163</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3272249214.994235</v>
+        <v>3253447651.282947</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1218794567751783</v>
+        <v>0.09901303051053277</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03609462958059342</v>
+        <v>0.0387126561927191</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>80</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1636124587.415541</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2254135665.785259</v>
+        <v>1856039608.708087</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1069853157471848</v>
+        <v>0.130062877801088</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03990181892269269</v>
+        <v>0.04273661365949535</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1127067792.74689</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5017717748.799608</v>
+        <v>3362562721.633829</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1491389398132447</v>
+        <v>0.1185721839969198</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02385105450384862</v>
+        <v>0.02754434116145498</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>108</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2508859012.636909</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2889756334.1143</v>
+        <v>2704258614.313855</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1155857875069988</v>
+        <v>0.1116986877978496</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02298573052300375</v>
+        <v>0.03284481803411313</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1444878144.272463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2882854870.972704</v>
+        <v>2107316901.671384</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1341060461553596</v>
+        <v>0.1428330302545534</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02994378795446068</v>
+        <v>0.03519275933137774</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>105</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1441427412.962566</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3273364308.905381</v>
+        <v>3829092954.124468</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1715646331739048</v>
+        <v>0.1148150549929073</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02173842376073898</v>
+        <v>0.02379997618646039</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>105</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1636682167.108677</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2678869774.139815</v>
+        <v>2373892536.654708</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1549434805312727</v>
+        <v>0.1342979718963415</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04707113205758245</v>
+        <v>0.05020244753904032</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>134</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1339434933.699841</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_333.xlsx
+++ b/output/fit_clients/fit_round_333.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1974930749.320882</v>
+        <v>2473956886.661428</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1071572947895198</v>
+        <v>0.08630888312021082</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03738172965430903</v>
+        <v>0.03471009962508481</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1646840833.199036</v>
+        <v>2181678313.406343</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1563559694897532</v>
+        <v>0.1700366497283226</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04544749031072974</v>
+        <v>0.04794001988209847</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4433444971.33796</v>
+        <v>4985740438.002898</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1402131660876104</v>
+        <v>0.1355153898984235</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03074990571559729</v>
+        <v>0.03820219360118098</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3340715100.395295</v>
+        <v>3107799073.061433</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09335408117268999</v>
+        <v>0.06984461397013171</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03854178773642652</v>
+        <v>0.0488589287142921</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2858300629.893189</v>
+        <v>2461184146.130716</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1150406066375577</v>
+        <v>0.1409802328234826</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04751993167616363</v>
+        <v>0.05084418878858668</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1968457521.117596</v>
+        <v>3060314514.722847</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09063270547761483</v>
+        <v>0.08543377084588993</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04193196615157065</v>
+        <v>0.03976243118116737</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3258154028.65211</v>
+        <v>2593060808.972737</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1413124345258145</v>
+        <v>0.1711206408409871</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02299299117534516</v>
+        <v>0.02125334493292174</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2211468874.882412</v>
+        <v>1500364496.421969</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1334715612329813</v>
+        <v>0.189772673577713</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02834838529786753</v>
+        <v>0.02665610255875964</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4307294328.541583</v>
+        <v>3646852526.675627</v>
       </c>
       <c r="F10" t="n">
-        <v>0.203566198532094</v>
+        <v>0.1388946013284337</v>
       </c>
       <c r="G10" t="n">
-        <v>0.044400945692944</v>
+        <v>0.03333093462074948</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3774043737.179042</v>
+        <v>2809755696.5888</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1527361636997284</v>
+        <v>0.1310724547919238</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03965195149325154</v>
+        <v>0.04028094221311756</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3185088892.939157</v>
+        <v>2842432674.864555</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1525579268599773</v>
+        <v>0.1649798615179988</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04764009488721902</v>
+        <v>0.03803146228542581</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3868928632.037113</v>
+        <v>3362809411.932593</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09265277128541029</v>
+        <v>0.07837910879655073</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0210476219221371</v>
+        <v>0.02024923701434854</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2557200923.27189</v>
+        <v>3015997570.108432</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1445133776620151</v>
+        <v>0.1781628750244147</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03110077179577762</v>
+        <v>0.03285197211853243</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1623963412.486074</v>
+        <v>1118251692.201926</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08738988714533071</v>
+        <v>0.09972929823948955</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0442237770894125</v>
+        <v>0.04217936091107131</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2038705627.012896</v>
+        <v>2841657364.125076</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08754882122124102</v>
+        <v>0.1157687828207846</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03808620555370433</v>
+        <v>0.03369756127613392</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4608799490.292034</v>
+        <v>4798676711.186001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.170608357610084</v>
+        <v>0.1177612377479902</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03776780710825828</v>
+        <v>0.04683424580794358</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3513300296.029495</v>
+        <v>3421025319.220304</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1380232735214459</v>
+        <v>0.1837340479533393</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03305473023767815</v>
+        <v>0.03412376355910664</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1217544109.044443</v>
+        <v>966292540.5747</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1814529344724569</v>
+        <v>0.1767332563075347</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01979640135409517</v>
+        <v>0.01994190983076287</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2322057635.25988</v>
+        <v>1957039796.558385</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1492397099206245</v>
+        <v>0.1346774490567887</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02500544751277812</v>
+        <v>0.02879546112351223</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1840267089.310099</v>
+        <v>2254690618.348554</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08511577710045685</v>
+        <v>0.06867945384511591</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03477477470873986</v>
+        <v>0.03751508271055729</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2720036035.098499</v>
+        <v>3678100031.549683</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1395229943340215</v>
+        <v>0.09810186629557026</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04670091203724119</v>
+        <v>0.0473659107286565</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,16 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1111590153.277228</v>
+        <v>1350802761.934048</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1817968343785207</v>
+        <v>0.1231323638890122</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03722363445453045</v>
+        <v>0.04234024582236502</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4050431547.04738</v>
+        <v>2645925071.801106</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1443765245633815</v>
+        <v>0.1228968606019061</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02266711806595631</v>
+        <v>0.03450426979628462</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1465933153.183464</v>
+        <v>1470010626.341187</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1205691165609474</v>
+        <v>0.1190037639769113</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01938477354859727</v>
+        <v>0.02335290345022455</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1078644440.225191</v>
+        <v>897833401.253147</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08947491711921567</v>
+        <v>0.1103631018649597</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02727416205031446</v>
+        <v>0.03464103981919131</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4189997312.000723</v>
+        <v>3699813314.444029</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1368194387135643</v>
+        <v>0.1539549123702852</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0227717468999209</v>
+        <v>0.02014351156151379</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3291170876.581039</v>
+        <v>2957846957.649838</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1184200989695891</v>
+        <v>0.1078433345860182</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04587526332513245</v>
+        <v>0.04210757038784173</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3984734658.790226</v>
+        <v>3629625040.332908</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09800521584669787</v>
+        <v>0.110532298993483</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0392610821712969</v>
+        <v>0.02983652065915983</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2375033454.536413</v>
+        <v>1736379757.026269</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1262414800265205</v>
+        <v>0.1014384406764748</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03925417658551381</v>
+        <v>0.02912685932390907</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>973285044.1955876</v>
+        <v>1464664659.470953</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09564155145128479</v>
+        <v>0.07978306849229666</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04963734553494113</v>
+        <v>0.04924171140554034</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1230377963.506404</v>
+        <v>1315105034.495451</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1009615603456732</v>
+        <v>0.101666923255293</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03463612492654716</v>
+        <v>0.03445530186667357</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2003712773.580572</v>
+        <v>2478428403.333612</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2073141689867803</v>
+        <v>0.203993349820963</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0390614849797077</v>
+        <v>0.05114404429872681</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1574920117.51161</v>
+        <v>1180516945.40035</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1057468273457083</v>
+        <v>0.1085641974553257</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02710248433275128</v>
+        <v>0.02664820603991482</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1110451576.174262</v>
+        <v>1126643469.68195</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08585033514439459</v>
+        <v>0.08442325065400737</v>
       </c>
       <c r="G35" t="n">
-        <v>0.041792946754167</v>
+        <v>0.03679158849307874</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3149907341.675334</v>
+        <v>3154492457.205155</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1241416660676753</v>
+        <v>0.1424057844180168</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02173446122600262</v>
+        <v>0.02368476215562446</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2570320696.602332</v>
+        <v>2157567188.528934</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07682477281059086</v>
+        <v>0.09299472401997168</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03259462187613436</v>
+        <v>0.03116516271018026</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1863831364.062811</v>
+        <v>1710383990.930066</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1077109040131132</v>
+        <v>0.1225323364477825</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03575268935101726</v>
+        <v>0.02600657715861588</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1405921932.120206</v>
+        <v>2141622016.931023</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1792600225226509</v>
+        <v>0.1312284317260241</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02997419252749159</v>
+        <v>0.03060891314436568</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1336325266.854605</v>
+        <v>1570640015.799873</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1630240881221577</v>
+        <v>0.1474864687967311</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04198771303845598</v>
+        <v>0.04349030571915748</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2641662348.825263</v>
+        <v>2571780187.656569</v>
       </c>
       <c r="F41" t="n">
-        <v>0.166706794258185</v>
+        <v>0.1568133558590797</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03822815544876221</v>
+        <v>0.04018137085080963</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3477239910.997553</v>
+        <v>3501111577.350984</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09791572150102704</v>
+        <v>0.08120145879737396</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02987241042855725</v>
+        <v>0.0349304948114242</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1999571738.998278</v>
+        <v>2560936686.393691</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1542498883826943</v>
+        <v>0.1741864847633966</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02107789962914201</v>
+        <v>0.02448426396864357</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1683786743.955826</v>
+        <v>2109958180.998485</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08847098536619526</v>
+        <v>0.07018213991650141</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02889790782239984</v>
+        <v>0.02585956848858412</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1640417196.284554</v>
+        <v>2312425583.467837</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1602866620962234</v>
+        <v>0.1731609033322496</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04734741630302848</v>
+        <v>0.04971185253989196</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3870401767.254205</v>
+        <v>4808446761.933745</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1491917023124799</v>
+        <v>0.1074582856962934</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0397785166751922</v>
+        <v>0.03798542640831591</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4332320891.27539</v>
+        <v>3736817807.982236</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1599213180581704</v>
+        <v>0.1456557070955802</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05496298531848463</v>
+        <v>0.05753884376646061</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4126109863.330218</v>
+        <v>2893183217.403618</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06749840855332802</v>
+        <v>0.07043238545981687</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03914953352601848</v>
+        <v>0.03188178514265555</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1526672758.035374</v>
+        <v>1907364730.8857</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1612992857148697</v>
+        <v>0.1702970391058728</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0383731660066747</v>
+        <v>0.03937968956284881</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4040434226.401584</v>
+        <v>3267611403.820945</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1736654061822876</v>
+        <v>0.1127843662468821</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03736543820339134</v>
+        <v>0.0353926412931863</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1035761678.76831</v>
+        <v>1214951051.695381</v>
       </c>
       <c r="F51" t="n">
-        <v>0.174935130519502</v>
+        <v>0.1461480475945394</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03937863672661353</v>
+        <v>0.03918545181767333</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5219795220.715533</v>
+        <v>4816731801.651709</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1359357606423784</v>
+        <v>0.1022689912375902</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04594518345177542</v>
+        <v>0.04922368899475443</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3386605194.477242</v>
+        <v>3585003057.423227</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1762178750400093</v>
+        <v>0.1285287808110113</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02454232806079777</v>
+        <v>0.02896625021953907</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4454963720.789138</v>
+        <v>4588022211.123409</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1211046723815528</v>
+        <v>0.1460628057208232</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03301826917667213</v>
+        <v>0.05084726796725199</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3427802808.625484</v>
+        <v>4051537149.404406</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1818476154309731</v>
+        <v>0.1633638368751742</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02880556277271471</v>
+        <v>0.03038167829953862</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1343989888.613369</v>
+        <v>1679912987.243531</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1116404592909435</v>
+        <v>0.154463944607288</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03602102956568347</v>
+        <v>0.04977140624324019</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3133816251.78099</v>
+        <v>2848465323.92776</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1788652311612729</v>
+        <v>0.146482685247733</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02756957596282714</v>
+        <v>0.02661525824347214</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1283746503.826653</v>
+        <v>1252862399.77113</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1870963027446126</v>
+        <v>0.1430256106845876</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03888319116484844</v>
+        <v>0.02558696932349544</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4995762822.178166</v>
+        <v>4382841582.416252</v>
       </c>
       <c r="F59" t="n">
-        <v>0.103144593195812</v>
+        <v>0.08708463332396015</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03733418303567151</v>
+        <v>0.043318475180041</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3387001374.505011</v>
+        <v>3144340434.988931</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1975237167394003</v>
+        <v>0.1404414388284731</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02227400160571244</v>
+        <v>0.02375272404266682</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3084501546.906501</v>
+        <v>2679903340.3752</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1579384539693886</v>
+        <v>0.1185969346698867</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02700041581582593</v>
+        <v>0.02780098757679465</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1367827509.554024</v>
+        <v>1320554760.12427</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1623591327174551</v>
+        <v>0.1491993039879537</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04934749800801138</v>
+        <v>0.04118072652138043</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3873799316.722847</v>
+        <v>3859982683.751731</v>
       </c>
       <c r="F63" t="n">
-        <v>0.090844216304447</v>
+        <v>0.1075404116197281</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04513734338144146</v>
+        <v>0.03483151966544183</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4442966342.196877</v>
+        <v>5368096517.704112</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1799726309293021</v>
+        <v>0.1783255334507569</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02350155216997045</v>
+        <v>0.02997830342053196</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4278458852.629316</v>
+        <v>4011865799.31675</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1226710999255903</v>
+        <v>0.1058712815980522</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02476465326445356</v>
+        <v>0.02557979554448404</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5500867324.665456</v>
+        <v>3952886166.234808</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1219984906028594</v>
+        <v>0.1577762555397591</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05083724489520221</v>
+        <v>0.04205236590936934</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3234685272.944174</v>
+        <v>2173036756.692674</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06748431020886184</v>
+        <v>0.08682104414135927</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04086291619523432</v>
+        <v>0.04729023064986938</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5529306324.279303</v>
+        <v>4472451481.579863</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1268639820731899</v>
+        <v>0.1391992996507732</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05156733543402355</v>
+        <v>0.03527100340018328</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2160184437.504528</v>
+        <v>1818368748.026125</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1682775524692243</v>
+        <v>0.1223677992685822</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04301829418019513</v>
+        <v>0.05164014728318585</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2311083503.77849</v>
+        <v>2489624935.411787</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07691455490849423</v>
+        <v>0.0828902310751298</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04771399096445992</v>
+        <v>0.03319664412430477</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5611306101.743997</v>
+        <v>4225299621.091522</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1571310526939082</v>
+        <v>0.1696536120144981</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03126564270614769</v>
+        <v>0.03248347812997186</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2021317539.651587</v>
+        <v>1435322935.82999</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09978430550529345</v>
+        <v>0.08105790774269038</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04105760712016232</v>
+        <v>0.04000455304796516</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2794298596.063723</v>
+        <v>3456320869.558317</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07694608006692051</v>
+        <v>0.08630634469412024</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05007592082739971</v>
+        <v>0.03326071540860932</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2677740134.039514</v>
+        <v>3089609632.696697</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1141087189553842</v>
+        <v>0.1677078854834693</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03423227377525551</v>
+        <v>0.03329994500907995</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1605346211.290122</v>
+        <v>1662464829.593666</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1019272994058453</v>
+        <v>0.1393785018336638</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02964098866263239</v>
+        <v>0.03088540331694661</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4364799458.476331</v>
+        <v>5030379013.175467</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1207365847517878</v>
+        <v>0.1173542982697836</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02535368380207819</v>
+        <v>0.03280001626634115</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1573309412.249112</v>
+        <v>2211250071.890387</v>
       </c>
       <c r="F77" t="n">
-        <v>0.181162078144813</v>
+        <v>0.11282832893364</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02022194026410093</v>
+        <v>0.02547348638535551</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3187115618.308657</v>
+        <v>4248317281.466348</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1326522766488862</v>
+        <v>0.1118356984673526</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04159070702353895</v>
+        <v>0.03892013345382022</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1531982680.786077</v>
+        <v>1529529223.799422</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1688895980317377</v>
+        <v>0.1106148766994828</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04001126927659238</v>
+        <v>0.03275799965815539</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5211999757.202774</v>
+        <v>3996303956.284271</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1053135136613663</v>
+        <v>0.08344486271272797</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03104137116895011</v>
+        <v>0.0331773811996528</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4319491318.134066</v>
+        <v>3833004658.028321</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1186763653068751</v>
+        <v>0.09564613221348871</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02599131696304367</v>
+        <v>0.02813828241826485</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5352100977.123313</v>
+        <v>3606304889.063941</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1478604182826498</v>
+        <v>0.1860935836289797</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01861590821892909</v>
+        <v>0.02127324721549375</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2288653334.074934</v>
+        <v>1716023068.809578</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1168062997874715</v>
+        <v>0.1523220894359316</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03651782628578649</v>
+        <v>0.03341887246666455</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2060890781.60601</v>
+        <v>2550150757.096326</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1147563021860798</v>
+        <v>0.08648661874471135</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03374494710437515</v>
+        <v>0.04689737029905916</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3493339962.425733</v>
+        <v>2338194143.763468</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1188247158144097</v>
+        <v>0.1197277688788436</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03823931380395255</v>
+        <v>0.04188516269894713</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1917580036.600044</v>
+        <v>2519739339.267692</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1343692660857342</v>
+        <v>0.1571872334016708</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02758169634926759</v>
+        <v>0.02255388376961419</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1171628236.595127</v>
+        <v>995039948.3422772</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1610017519932466</v>
+        <v>0.1869724053786125</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03447842755625258</v>
+        <v>0.04204719950813479</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2963206841.230391</v>
+        <v>3543921782.8684</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1524266494469932</v>
+        <v>0.1299348223755384</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02653573083927256</v>
+        <v>0.02455943770595232</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2710487981.16585</v>
+        <v>2813604907.414762</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1057722735728664</v>
+        <v>0.1456160822067274</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03919464618642033</v>
+        <v>0.04106479961266723</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2019225733.779363</v>
+        <v>1572158649.678553</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1198552554644055</v>
+        <v>0.1115698135415575</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03450500106522608</v>
+        <v>0.04586473128718959</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1557831414.58399</v>
+        <v>1516727851.657287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1825606552609341</v>
+        <v>0.1719218541005504</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05722028267829073</v>
+        <v>0.03727665038526581</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2497244806.915803</v>
+        <v>1975128492.47597</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07106362739280618</v>
+        <v>0.1025136667146756</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04485867430619709</v>
+        <v>0.03173377685890663</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4119917327.134552</v>
+        <v>4790715551.646139</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1236319796411111</v>
+        <v>0.09660135723999264</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05419364520731745</v>
+        <v>0.04439316603097508</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2358166942.933131</v>
+        <v>1802887227.919194</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1222022250691917</v>
+        <v>0.1310642157223776</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04029490608452039</v>
+        <v>0.0314068695494949</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3253447651.282947</v>
+        <v>2116589956.757183</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09901303051053277</v>
+        <v>0.1133741446061591</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0387126561927191</v>
+        <v>0.04824686613682936</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1856039608.708087</v>
+        <v>2250291132.351363</v>
       </c>
       <c r="F96" t="n">
-        <v>0.130062877801088</v>
+        <v>0.1397026501092944</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04273661365949535</v>
+        <v>0.04126108830291771</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3362562721.633829</v>
+        <v>4284429772.730696</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1185721839969198</v>
+        <v>0.1175771074190184</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02754434116145498</v>
+        <v>0.02313676162080988</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2704258614.313855</v>
+        <v>3483875941.753722</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1116986877978496</v>
+        <v>0.08565981636061573</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03284481803411313</v>
+        <v>0.02027347296595529</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2107316901.671384</v>
+        <v>2854367794.356845</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1428330302545534</v>
+        <v>0.1279273032113712</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03519275933137774</v>
+        <v>0.03193051263687058</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3829092954.124468</v>
+        <v>3026757438.670624</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1148150549929073</v>
+        <v>0.1699249634866782</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02379997618646039</v>
+        <v>0.02151317508718645</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2373892536.654708</v>
+        <v>2585775524.229824</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1342979718963415</v>
+        <v>0.1731323103471245</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05020244753904032</v>
+        <v>0.04701537810430265</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_333.xlsx
+++ b/output/fit_clients/fit_round_333.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2473956886.661428</v>
+        <v>1882778196.743028</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08630888312021082</v>
+        <v>0.1077642741599507</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03471009962508481</v>
+        <v>0.03052388735812924</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2181678313.406343</v>
+        <v>2060292551.871153</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1700366497283226</v>
+        <v>0.1167250707098415</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04794001988209847</v>
+        <v>0.03113631772088649</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4985740438.002898</v>
+        <v>3505144025.353712</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1355153898984235</v>
+        <v>0.1157521577288852</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03820219360118098</v>
+        <v>0.03478189203468707</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>173</v>
+      </c>
+      <c r="J4" t="n">
+        <v>332</v>
+      </c>
+      <c r="K4" t="n">
+        <v>65.03257421447758</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3107799073.061433</v>
+        <v>2729332954.326638</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06984461397013171</v>
+        <v>0.0928052192928543</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0488589287142921</v>
+        <v>0.04867839333741471</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>132</v>
+      </c>
+      <c r="J5" t="n">
+        <v>329</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2461184146.130716</v>
+        <v>1844812781.082812</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1409802328234826</v>
+        <v>0.1279606767457561</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05084418878858668</v>
+        <v>0.05165438192053311</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3060314514.722847</v>
+        <v>2008620991.985116</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08543377084588993</v>
+        <v>0.06379017340329567</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03976243118116737</v>
+        <v>0.03274182123235227</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2593060808.972737</v>
+        <v>3277051289.490788</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1711206408409871</v>
+        <v>0.1715811895580143</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02125334493292174</v>
+        <v>0.03039931092839469</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>327</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1500364496.421969</v>
+        <v>1672615745.881514</v>
       </c>
       <c r="F9" t="n">
-        <v>0.189772673577713</v>
+        <v>0.1382018197555412</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02665610255875964</v>
+        <v>0.03236549260596257</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +783,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3646852526.675627</v>
+        <v>5881466850.671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1388946013284337</v>
+        <v>0.1717073435891389</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03333093462074948</v>
+        <v>0.05184612049162441</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>286</v>
+      </c>
+      <c r="J10" t="n">
+        <v>333</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2809755696.5888</v>
+        <v>3777420954.398887</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1310724547919238</v>
+        <v>0.1604725573909097</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04028094221311756</v>
+        <v>0.04395431378252163</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>135</v>
+      </c>
+      <c r="J11" t="n">
+        <v>333</v>
+      </c>
+      <c r="K11" t="n">
+        <v>84.64799100298912</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2842432674.864555</v>
+        <v>2235580376.417917</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1649798615179988</v>
+        <v>0.150648060296195</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03803146228542581</v>
+        <v>0.03990957639646914</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3362809411.932593</v>
+        <v>4130455864.770969</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07837910879655073</v>
+        <v>0.09489935180336208</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02024923701434854</v>
+        <v>0.02157668813849007</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>173</v>
+      </c>
+      <c r="J13" t="n">
+        <v>333</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3015997570.108432</v>
+        <v>3037086957.536503</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1781628750244147</v>
+        <v>0.1884905477102394</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03285197211853243</v>
+        <v>0.03988865366976278</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>68</v>
+      </c>
+      <c r="J14" t="n">
+        <v>331</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +960,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1118251692.201926</v>
+        <v>1814082072.985867</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09972929823948955</v>
+        <v>0.06989718718389432</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04217936091107131</v>
+        <v>0.03738496682664903</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2841657364.125076</v>
+        <v>2517901326.267877</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1157687828207846</v>
+        <v>0.1017899849543881</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03369756127613392</v>
+        <v>0.04311931623215769</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1030,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4798676711.186001</v>
+        <v>4440609471.835217</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1177612377479902</v>
+        <v>0.1246983670709323</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04683424580794358</v>
+        <v>0.04949843270244694</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>156</v>
+      </c>
+      <c r="J17" t="n">
+        <v>333</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3421025319.220304</v>
+        <v>3322419307.026682</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1837340479533393</v>
+        <v>0.1413249637944462</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03412376355910664</v>
+        <v>0.02658102521357615</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>82</v>
+      </c>
+      <c r="J18" t="n">
+        <v>329</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1100,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>966292540.5747</v>
+        <v>1307158741.93429</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1767332563075347</v>
+        <v>0.1800887401572692</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01994190983076287</v>
+        <v>0.02322633275259454</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1957039796.558385</v>
+        <v>1938969266.491906</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1346774490567887</v>
+        <v>0.1125005817331701</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02879546112351223</v>
+        <v>0.02510997127942416</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2254690618.348554</v>
+        <v>1919855278.06197</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06867945384511591</v>
+        <v>0.08991789112683513</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03751508271055729</v>
+        <v>0.03850110215458866</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3678100031.549683</v>
+        <v>2510449611.182387</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09810186629557026</v>
+        <v>0.1408159464226982</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0473659107286565</v>
+        <v>0.03878457166134933</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>92</v>
+      </c>
+      <c r="J22" t="n">
+        <v>331</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1350802761.934048</v>
+        <v>997477542.9582654</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1231323638890122</v>
+        <v>0.1334049419936042</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04234024582236502</v>
+        <v>0.04834030857276093</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1269,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2645925071.801106</v>
+        <v>2663283788.102955</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1228968606019061</v>
+        <v>0.1059651512673764</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03450426979628462</v>
+        <v>0.03706385829161832</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>99</v>
+      </c>
+      <c r="J24" t="n">
+        <v>332</v>
+      </c>
+      <c r="K24" t="n">
+        <v>38.22465404566977</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1470010626.341187</v>
+        <v>1191369549.427449</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1190037639769113</v>
+        <v>0.08301643713442294</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02335290345022455</v>
+        <v>0.02058370541163861</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>897833401.253147</v>
+        <v>906248940.4890108</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1103631018649597</v>
+        <v>0.07617929550103095</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03464103981919131</v>
+        <v>0.0344186101758169</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3699813314.444029</v>
+        <v>4394419526.950416</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1539549123702852</v>
+        <v>0.1248374012192976</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02014351156151379</v>
+        <v>0.02061061289471534</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>138</v>
+      </c>
+      <c r="J27" t="n">
+        <v>333</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2957846957.649838</v>
+        <v>2926309689.691311</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1078433345860182</v>
+        <v>0.1069520552021865</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04210757038784173</v>
+        <v>0.04137861362108827</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>71</v>
+      </c>
+      <c r="J28" t="n">
+        <v>327</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3629625040.332908</v>
+        <v>5009695743.553544</v>
       </c>
       <c r="F29" t="n">
-        <v>0.110532298993483</v>
+        <v>0.1483013442639035</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02983652065915983</v>
+        <v>0.03628510945278337</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>303</v>
+      </c>
+      <c r="J29" t="n">
+        <v>333</v>
+      </c>
+      <c r="K29" t="n">
+        <v>70.83948480495469</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1736379757.026269</v>
+        <v>1558125884.865956</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1014384406764748</v>
+        <v>0.1127370116616345</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02912685932390907</v>
+        <v>0.03291307359995948</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1524,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1464664659.470953</v>
+        <v>1444387954.820833</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07978306849229666</v>
+        <v>0.09740337638040807</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04924171140554034</v>
+        <v>0.038770561022253</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1315105034.495451</v>
+        <v>1415372709.577233</v>
       </c>
       <c r="F32" t="n">
-        <v>0.101666923255293</v>
+        <v>0.1004102873915508</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03445530186667357</v>
+        <v>0.02906174015000617</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2478428403.333612</v>
+        <v>3121675198.273103</v>
       </c>
       <c r="F33" t="n">
-        <v>0.203993349820963</v>
+        <v>0.1814619544484169</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05114404429872681</v>
+        <v>0.0467625947641455</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1629,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1180516945.40035</v>
+        <v>1033537892.950787</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1085641974553257</v>
+        <v>0.1108334474184774</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02664820603991482</v>
+        <v>0.02451996370188181</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1126643469.68195</v>
+        <v>1359599870.862924</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08442325065400737</v>
+        <v>0.1057200006537623</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03679158849307874</v>
+        <v>0.03759068855386292</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3154492457.205155</v>
+        <v>2868238828.54459</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1424057844180168</v>
+        <v>0.130344219311286</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02368476215562446</v>
+        <v>0.01933808264297173</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2157567188.528934</v>
+        <v>2116471810.410871</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09299472401997168</v>
+        <v>0.08709988334758643</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03116516271018026</v>
+        <v>0.03673536846748317</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1769,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1710383990.930066</v>
+        <v>2143732477.468448</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1225323364477825</v>
+        <v>0.0775515751150504</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02600657715861588</v>
+        <v>0.03691499865597216</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1804,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2141622016.931023</v>
+        <v>1673704952.88202</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1312284317260241</v>
+        <v>0.1411606531731644</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03060891314436568</v>
+        <v>0.02938958459647216</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1839,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1570640015.799873</v>
+        <v>1724852183.090039</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1474864687967311</v>
+        <v>0.1626628574286661</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04349030571915748</v>
+        <v>0.03954135128787124</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2571780187.656569</v>
+        <v>1972498568.473678</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1568133558590797</v>
+        <v>0.1465726940244435</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04018137085080963</v>
+        <v>0.04296626712305317</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1903,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3501111577.350984</v>
+        <v>3375027626.532106</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08120145879737396</v>
+        <v>0.09416453162808461</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0349304948114242</v>
+        <v>0.03914101067346091</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>141</v>
+      </c>
+      <c r="J42" t="n">
+        <v>332</v>
+      </c>
+      <c r="K42" t="n">
+        <v>68.38933810938623</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2560936686.393691</v>
+        <v>1925162240.093401</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1741864847633966</v>
+        <v>0.2033322636956172</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02448426396864357</v>
+        <v>0.02023356310860811</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2109958180.998485</v>
+        <v>1447210035.383193</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07018213991650141</v>
+        <v>0.06777936898260593</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02585956848858412</v>
+        <v>0.03125130114314547</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2312425583.467837</v>
+        <v>2444455237.303473</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1731609033322496</v>
+        <v>0.1426430919498428</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04971185253989196</v>
+        <v>0.04412679858701378</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4808446761.933745</v>
+        <v>3992812291.628942</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1074582856962934</v>
+        <v>0.163929840884729</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03798542640831591</v>
+        <v>0.0578581505306749</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>198</v>
+      </c>
+      <c r="J46" t="n">
+        <v>333</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3736817807.982236</v>
+        <v>3322241066.615829</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1456557070955802</v>
+        <v>0.1959612298492212</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05753884376646061</v>
+        <v>0.04990653337314654</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>148</v>
+      </c>
+      <c r="J47" t="n">
+        <v>330</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2115,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2893183217.403618</v>
+        <v>3371967665.352746</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07043238545981687</v>
+        <v>0.07608637503577308</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03188178514265555</v>
+        <v>0.02556529505737065</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>165</v>
+      </c>
+      <c r="J48" t="n">
+        <v>330</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2156,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1907364730.8857</v>
+        <v>1775346085.856113</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1702970391058728</v>
+        <v>0.122290169540953</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03937968956284881</v>
+        <v>0.03516012697626762</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2185,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3267611403.820945</v>
+        <v>3425829448.310925</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1127843662468821</v>
+        <v>0.17841899899753</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0353926412931863</v>
+        <v>0.03839696992833667</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>109</v>
+      </c>
+      <c r="J50" t="n">
+        <v>333</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2220,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1214951051.695381</v>
+        <v>1428981533.118019</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1461480475945394</v>
+        <v>0.1220380457107753</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03918545181767333</v>
+        <v>0.04683280714267651</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2255,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4816731801.651709</v>
+        <v>3678786303.967978</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1022689912375902</v>
+        <v>0.1170538507942627</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04922368899475443</v>
+        <v>0.04127179495236102</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>201</v>
+      </c>
+      <c r="J52" t="n">
+        <v>332</v>
+      </c>
+      <c r="K52" t="n">
+        <v>68.33129335293545</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2292,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3585003057.423227</v>
+        <v>2701752504.633144</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1285287808110113</v>
+        <v>0.1906756848505977</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02896625021953907</v>
+        <v>0.02999051327843771</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>47</v>
+      </c>
+      <c r="J53" t="n">
+        <v>321</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2327,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4588022211.123409</v>
+        <v>3755932761.611961</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1460628057208232</v>
+        <v>0.1324985569886845</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05084726796725199</v>
+        <v>0.04438016033245188</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>175</v>
+      </c>
+      <c r="J54" t="n">
+        <v>333</v>
+      </c>
+      <c r="K54" t="n">
+        <v>71.5305234301206</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4051537149.404406</v>
+        <v>3776218190.293806</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1633638368751742</v>
+        <v>0.2045808346237938</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03038167829953862</v>
+        <v>0.02406081737646353</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>158</v>
+      </c>
+      <c r="J55" t="n">
+        <v>332</v>
+      </c>
+      <c r="K55" t="n">
+        <v>69.66272098545238</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1679912987.243531</v>
+        <v>1279967272.131739</v>
       </c>
       <c r="F56" t="n">
-        <v>0.154463944607288</v>
+        <v>0.1227535059266964</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04977140624324019</v>
+        <v>0.03801768906188413</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2442,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2848465323.92776</v>
+        <v>3137472441.12796</v>
       </c>
       <c r="F57" t="n">
-        <v>0.146482685247733</v>
+        <v>0.1122783766111839</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02661525824347214</v>
+        <v>0.02684862386462243</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>136</v>
+      </c>
+      <c r="J57" t="n">
+        <v>332</v>
+      </c>
+      <c r="K57" t="n">
+        <v>56.0189313175686</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1252862399.77113</v>
+        <v>1581171011.89617</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1430256106845876</v>
+        <v>0.1332614671264374</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02558696932349544</v>
+        <v>0.03429708510891807</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2514,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4382841582.416252</v>
+        <v>5349785108.206232</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08708463332396015</v>
+        <v>0.08909796222697891</v>
       </c>
       <c r="G59" t="n">
-        <v>0.043318475180041</v>
+        <v>0.03660879455045768</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>160</v>
+      </c>
+      <c r="J59" t="n">
+        <v>333</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2543,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3144340434.988931</v>
+        <v>3070703419.713018</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1404414388284731</v>
+        <v>0.1606875734834713</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02375272404266682</v>
+        <v>0.02207147687773857</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>58</v>
+      </c>
+      <c r="J60" t="n">
+        <v>330</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2679903340.3752</v>
+        <v>2587315614.245368</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1185969346698867</v>
+        <v>0.1428609088796212</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02780098757679465</v>
+        <v>0.02895077347172842</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1320554760.12427</v>
+        <v>2065817997.185767</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1491993039879537</v>
+        <v>0.1739580081536696</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04118072652138043</v>
+        <v>0.0409153141746916</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2654,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3859982683.751731</v>
+        <v>5352455921.008326</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1075404116197281</v>
+        <v>0.1021400133290144</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03483151966544183</v>
+        <v>0.03183628967032456</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>162</v>
+      </c>
+      <c r="J63" t="n">
+        <v>333</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2683,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5368096517.704112</v>
+        <v>5346881381.097627</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1783255334507569</v>
+        <v>0.1604760420191337</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02997830342053196</v>
+        <v>0.03486695629213909</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>164</v>
+      </c>
+      <c r="J64" t="n">
+        <v>333</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2718,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4011865799.31675</v>
+        <v>4835232124.980299</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1058712815980522</v>
+        <v>0.166118852650593</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02557979554448404</v>
+        <v>0.02801234828861501</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>260</v>
+      </c>
+      <c r="J65" t="n">
+        <v>332</v>
+      </c>
+      <c r="K65" t="n">
+        <v>68.48533114586766</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2755,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3952886166.234808</v>
+        <v>3532227739.890069</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1577762555397591</v>
+        <v>0.1391939475933485</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04205236590936934</v>
+        <v>0.04381825930443133</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>164</v>
+      </c>
+      <c r="J66" t="n">
+        <v>333</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2790,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2173036756.692674</v>
+        <v>2153119218.969475</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08682104414135927</v>
+        <v>0.07623111431063406</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04729023064986938</v>
+        <v>0.03764554627694815</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2825,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4472451481.579863</v>
+        <v>4929760279.248156</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1391992996507732</v>
+        <v>0.1225023254224324</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03527100340018328</v>
+        <v>0.04661882142171501</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>181</v>
+      </c>
+      <c r="J68" t="n">
+        <v>333</v>
+      </c>
+      <c r="K68" t="n">
+        <v>70.07750888129175</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2862,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1818368748.026125</v>
+        <v>1800198537.366768</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1223677992685822</v>
+        <v>0.1504729668495936</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05164014728318585</v>
+        <v>0.04457188248086553</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2897,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2489624935.411787</v>
+        <v>3409913867.553407</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0828902310751298</v>
+        <v>0.07984489062365079</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03319664412430477</v>
+        <v>0.047462674221871</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>50</v>
+      </c>
+      <c r="J70" t="n">
+        <v>332</v>
+      </c>
+      <c r="K70" t="n">
+        <v>66.00359614507479</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2934,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4225299621.091522</v>
+        <v>4743380108.694422</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1696536120144981</v>
+        <v>0.1400018173876578</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03248347812997186</v>
+        <v>0.02756016265947132</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>246</v>
+      </c>
+      <c r="J71" t="n">
+        <v>332</v>
+      </c>
+      <c r="K71" t="n">
+        <v>69.72792469038812</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1435322935.82999</v>
+        <v>2277927357.892836</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08105790774269038</v>
+        <v>0.1072538297343142</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04000455304796516</v>
+        <v>0.05108179388975219</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3456320869.558317</v>
+        <v>2272329221.28828</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08630634469412024</v>
+        <v>0.07088368417181974</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03326071540860932</v>
+        <v>0.03498456288487616</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3089609632.696697</v>
+        <v>3563438650.847124</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1677078854834693</v>
+        <v>0.1475757123490506</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03329994500907995</v>
+        <v>0.02609326849633365</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>87</v>
+      </c>
+      <c r="J74" t="n">
+        <v>333</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3082,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1662464829.593666</v>
+        <v>2105088216.064625</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1393785018336638</v>
+        <v>0.1350721227815262</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03088540331694661</v>
+        <v>0.02709263707016636</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3117,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5030379013.175467</v>
+        <v>3661901251.633945</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1173542982697836</v>
+        <v>0.1233712557302852</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03280001626634115</v>
+        <v>0.02073528846390745</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>157</v>
+      </c>
+      <c r="J76" t="n">
+        <v>332</v>
+      </c>
+      <c r="K76" t="n">
+        <v>68.39071838234278</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3154,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2211250071.890387</v>
+        <v>1865704958.728011</v>
       </c>
       <c r="F77" t="n">
-        <v>0.11282832893364</v>
+        <v>0.1387505666362242</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02547348638535551</v>
+        <v>0.03038306357429531</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3183,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4248317281.466348</v>
+        <v>4304616355.791333</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1118356984673526</v>
+        <v>0.1111048467923381</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03892013345382022</v>
+        <v>0.04872329040652131</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>163</v>
+      </c>
+      <c r="J78" t="n">
+        <v>333</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1529529223.799422</v>
+        <v>1191648257.213379</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1106148766994828</v>
+        <v>0.176914694551342</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03275799965815539</v>
+        <v>0.03077228093973883</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3996303956.284271</v>
+        <v>4639564786.825407</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08344486271272797</v>
+        <v>0.08655138969860089</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0331773811996528</v>
+        <v>0.03742664758324155</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>163</v>
+      </c>
+      <c r="J80" t="n">
+        <v>332</v>
+      </c>
+      <c r="K80" t="n">
+        <v>55.19653561177123</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3290,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3833004658.028321</v>
+        <v>4191888466.532308</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09564613221348871</v>
+        <v>0.08625582947894371</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02813828241826485</v>
+        <v>0.02799001735651033</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>153</v>
+      </c>
+      <c r="J81" t="n">
+        <v>333</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3606304889.063941</v>
+        <v>5676169197.819552</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1860935836289797</v>
+        <v>0.2052135168268567</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02127324721549375</v>
+        <v>0.02638438589366653</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>239</v>
+      </c>
+      <c r="J82" t="n">
+        <v>333</v>
+      </c>
+      <c r="K82" t="n">
+        <v>70.02543596994687</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3368,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1716023068.809578</v>
+        <v>1748229164.757185</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1523220894359316</v>
+        <v>0.1157348687050672</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03341887246666455</v>
+        <v>0.03468584148082535</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2550150757.096326</v>
+        <v>2181771736.850562</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08648661874471135</v>
+        <v>0.1093535324887358</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04689737029905916</v>
+        <v>0.04140696629273362</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,16 +3438,25 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2338194143.763468</v>
+        <v>2236474072.285432</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1197277688788436</v>
+        <v>0.1740817091001088</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04188516269894713</v>
+        <v>0.05110496312097822</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>44</v>
+      </c>
+      <c r="J85" t="n">
+        <v>332</v>
+      </c>
+      <c r="K85" t="n">
+        <v>37.20034689215936</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2519739339.267692</v>
+        <v>1857622846.376538</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1571872334016708</v>
+        <v>0.1476768102313566</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02255388376961419</v>
+        <v>0.02458198358062092</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>995039948.3422772</v>
+        <v>1332897737.85654</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1869724053786125</v>
+        <v>0.1604337575588403</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04204719950813479</v>
+        <v>0.03123662487037675</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3543921782.8684</v>
+        <v>2673608832.569824</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1299348223755384</v>
+        <v>0.1108088299909738</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02455943770595232</v>
+        <v>0.03209022366294855</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2813604907.414762</v>
+        <v>3394701717.345853</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1456160822067274</v>
+        <v>0.1541375827514751</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04106479961266723</v>
+        <v>0.04169433370493501</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>25</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1572158649.678553</v>
+        <v>1312855235.062531</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1115698135415575</v>
+        <v>0.09455862284664843</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04586473128718959</v>
+        <v>0.05385192881969522</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1516727851.657287</v>
+        <v>2068684767.290935</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1719218541005504</v>
+        <v>0.1813066370385993</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03727665038526581</v>
+        <v>0.041655588231098</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1975128492.47597</v>
+        <v>2740146380.937429</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1025136667146756</v>
+        <v>0.08940228586149486</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03173377685890663</v>
+        <v>0.03752439899059049</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3714,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4790715551.646139</v>
+        <v>4145014787.173252</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09660135723999264</v>
+        <v>0.1108129887682977</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04439316603097508</v>
+        <v>0.05183834684373188</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>152</v>
+      </c>
+      <c r="J93" t="n">
+        <v>333</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1802887227.919194</v>
+        <v>1624143808.699622</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1310642157223776</v>
+        <v>0.1032988886657911</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0314068695494949</v>
+        <v>0.03127420452715121</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2116589956.757183</v>
+        <v>2125440642.598853</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1133741446061591</v>
+        <v>0.1176728047636499</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04824686613682936</v>
+        <v>0.03868246689912195</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2250291132.351363</v>
+        <v>1681072538.690598</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1397026501092944</v>
+        <v>0.1413587600927907</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04126108830291771</v>
+        <v>0.04015279273326002</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4284429772.730696</v>
+        <v>3339385532.330386</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1175771074190184</v>
+        <v>0.1219321666733854</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02313676162080988</v>
+        <v>0.02227027915745569</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>171</v>
+      </c>
+      <c r="J97" t="n">
+        <v>332</v>
+      </c>
+      <c r="K97" t="n">
+        <v>59.05631353792796</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3483875941.753722</v>
+        <v>2883684741.392564</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08565981636061573</v>
+        <v>0.09839929232127842</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02027347296595529</v>
+        <v>0.02335056684914519</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>83</v>
+      </c>
+      <c r="J98" t="n">
+        <v>332</v>
+      </c>
+      <c r="K98" t="n">
+        <v>45.74988406292031</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2854367794.356845</v>
+        <v>2143267785.735977</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1279273032113712</v>
+        <v>0.1038318594749258</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03193051263687058</v>
+        <v>0.02815655399507494</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3026757438.670624</v>
+        <v>3198267005.010454</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1699249634866782</v>
+        <v>0.1412226890753202</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02151317508718645</v>
+        <v>0.01889567249160658</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>149</v>
+      </c>
+      <c r="J100" t="n">
+        <v>332</v>
+      </c>
+      <c r="K100" t="n">
+        <v>52.70558587358691</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2585775524.229824</v>
+        <v>3026577578.702911</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1731323103471245</v>
+        <v>0.1975304043285498</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04701537810430265</v>
+        <v>0.04943753862125814</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>31</v>
+      </c>
+      <c r="J101" t="n">
+        <v>331</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
